--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/NewVIN_UT_SS.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/NewVIN_UT_SS.xlsx
@@ -630,7 +630,7 @@
   <dimension ref="A1:AL6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C2" sqref="C2:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -781,7 +781,7 @@
         <v>70</v>
       </c>
       <c r="C2" s="3">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="D2" t="s">
         <v>69</v>
@@ -897,7 +897,7 @@
         <v>70</v>
       </c>
       <c r="C3" s="3">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="D3" t="s">
         <v>50</v>
@@ -1013,7 +1013,7 @@
         <v>70</v>
       </c>
       <c r="C4" s="3">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="D4" t="s">
         <v>50</v>
@@ -1129,7 +1129,7 @@
         <v>70</v>
       </c>
       <c r="C5" s="3">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="D5" t="s">
         <v>50</v>
@@ -1245,7 +1245,7 @@
         <v>70</v>
       </c>
       <c r="C6" s="3">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>59</v>

--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/NewVIN_UT_SS.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/NewVIN_UT_SS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT-repo\pas-cvqaautomation\aaa-automation-tests\src\test\resources\uploadingfiles\vinUploadFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gp8john\Documents\CSAA\pas-cvqaautomation\aaa-automation-tests\src\test\resources\uploadingfiles\vinUploadFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8328"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8325"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -630,34 +630,34 @@
   <dimension ref="A1:AL6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C6"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" customWidth="1"/>
-    <col min="2" max="2" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.5546875" customWidth="1"/>
-    <col min="15" max="15" width="18.77734375" customWidth="1"/>
-    <col min="21" max="21" width="22.88671875" customWidth="1"/>
-    <col min="23" max="23" width="22.21875" customWidth="1"/>
-    <col min="24" max="24" width="20.88671875" customWidth="1"/>
-    <col min="25" max="25" width="34.77734375" customWidth="1"/>
-    <col min="26" max="26" width="5.88671875" customWidth="1"/>
-    <col min="27" max="27" width="16.21875" customWidth="1"/>
-    <col min="28" max="29" width="13.77734375" customWidth="1"/>
-    <col min="35" max="35" width="19.88671875" customWidth="1"/>
-    <col min="36" max="36" width="21.88671875" customWidth="1"/>
-    <col min="38" max="38" width="20.88671875" customWidth="1"/>
+    <col min="12" max="12" width="24.5703125" customWidth="1"/>
+    <col min="15" max="15" width="18.7109375" customWidth="1"/>
+    <col min="21" max="21" width="22.85546875" customWidth="1"/>
+    <col min="23" max="23" width="22.28515625" customWidth="1"/>
+    <col min="24" max="24" width="20.85546875" customWidth="1"/>
+    <col min="25" max="25" width="34.7109375" customWidth="1"/>
+    <col min="26" max="26" width="5.85546875" customWidth="1"/>
+    <col min="27" max="27" width="16.28515625" customWidth="1"/>
+    <col min="28" max="29" width="13.7109375" customWidth="1"/>
+    <col min="35" max="35" width="19.85546875" customWidth="1"/>
+    <col min="36" max="36" width="21.85546875" customWidth="1"/>
+    <col min="38" max="38" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -773,7 +773,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>52</v>
       </c>
@@ -889,7 +889,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>52</v>
       </c>
@@ -1005,7 +1005,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>52</v>
       </c>
@@ -1121,7 +1121,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -1237,7 +1237,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>63</v>
       </c>

--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/NewVIN_UT_SS.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/NewVIN_UT_SS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8325"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8328"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -216,9 +216,6 @@
     <t>Gt</t>
   </si>
   <si>
-    <t>1FDEU15H&amp;K</t>
-  </si>
-  <si>
     <t>STAT</t>
   </si>
   <si>
@@ -271,6 +268,9 @@
   </si>
   <si>
     <t>SYMBOL_2000</t>
+  </si>
+  <si>
+    <t>AAAKN3DD&amp;E</t>
   </si>
 </sst>
 </file>
@@ -630,34 +630,34 @@
   <dimension ref="A1:AL6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" customWidth="1"/>
+    <col min="2" max="2" width="27.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.5703125" customWidth="1"/>
-    <col min="15" max="15" width="18.7109375" customWidth="1"/>
-    <col min="21" max="21" width="22.85546875" customWidth="1"/>
-    <col min="23" max="23" width="22.28515625" customWidth="1"/>
-    <col min="24" max="24" width="20.85546875" customWidth="1"/>
-    <col min="25" max="25" width="34.7109375" customWidth="1"/>
-    <col min="26" max="26" width="5.85546875" customWidth="1"/>
-    <col min="27" max="27" width="16.28515625" customWidth="1"/>
-    <col min="28" max="29" width="13.7109375" customWidth="1"/>
-    <col min="35" max="35" width="19.85546875" customWidth="1"/>
-    <col min="36" max="36" width="21.85546875" customWidth="1"/>
-    <col min="38" max="38" width="20.85546875" customWidth="1"/>
+    <col min="12" max="12" width="24.5546875" customWidth="1"/>
+    <col min="15" max="15" width="18.6640625" customWidth="1"/>
+    <col min="21" max="21" width="22.88671875" customWidth="1"/>
+    <col min="23" max="23" width="22.33203125" customWidth="1"/>
+    <col min="24" max="24" width="20.88671875" customWidth="1"/>
+    <col min="25" max="25" width="34.6640625" customWidth="1"/>
+    <col min="26" max="26" width="5.88671875" customWidth="1"/>
+    <col min="27" max="27" width="16.33203125" customWidth="1"/>
+    <col min="28" max="29" width="13.6640625" customWidth="1"/>
+    <col min="35" max="35" width="19.88671875" customWidth="1"/>
+    <col min="36" max="36" width="21.88671875" customWidth="1"/>
+    <col min="38" max="38" width="20.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -734,7 +734,7 @@
         <v>24</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>25</v>
@@ -743,7 +743,7 @@
         <v>26</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AD1" s="1" t="s">
         <v>27</v>
@@ -773,21 +773,21 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C2" s="3">
         <v>2018</v>
       </c>
       <c r="D2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F2" t="s">
         <v>51</v>
@@ -859,22 +859,22 @@
         <v>42</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AD2" s="3" t="s">
         <v>39</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH2" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AI2" s="3">
         <v>20010101</v>
@@ -889,12 +889,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C3" s="3">
         <v>2018</v>
@@ -906,7 +906,7 @@
         <v>50</v>
       </c>
       <c r="F3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>28</v>
@@ -975,7 +975,7 @@
         <v>42</v>
       </c>
       <c r="AC3" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AD3" s="3" t="s">
         <v>39</v>
@@ -1005,12 +1005,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C4" s="3">
         <v>2018</v>
@@ -1022,7 +1022,7 @@
         <v>50</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>28</v>
@@ -1091,7 +1091,7 @@
         <v>42</v>
       </c>
       <c r="AC4" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AD4" s="3" t="s">
         <v>39</v>
@@ -1121,12 +1121,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C5" s="3">
         <v>2018</v>
@@ -1138,7 +1138,7 @@
         <v>50</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>28</v>
@@ -1198,7 +1198,7 @@
         <v>37</v>
       </c>
       <c r="Z5" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AA5" s="3">
         <v>42</v>
@@ -1207,7 +1207,7 @@
         <v>42</v>
       </c>
       <c r="AC5" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AD5" s="3" t="s">
         <v>39</v>
@@ -1237,27 +1237,27 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C6" s="3">
         <v>2018</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="H6" s="3">
         <v>88888</v>
@@ -1266,19 +1266,19 @@
         <v>29</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O6" s="3">
         <v>12</v>
@@ -1290,7 +1290,7 @@
         <v>214</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="S6" s="3">
         <v>4</v>
@@ -1314,7 +1314,7 @@
         <v>37</v>
       </c>
       <c r="Z6" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AA6" s="3">
         <v>35</v>
@@ -1323,22 +1323,22 @@
         <v>44</v>
       </c>
       <c r="AC6" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AD6" s="3" t="s">
         <v>39</v>
       </c>
       <c r="AE6" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AF6" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AG6" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AH6" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AI6" s="3">
         <v>20000101</v>

--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/NewVIN_UT_SS.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/NewVIN_UT_SS.xlsx
@@ -630,7 +630,7 @@
   <dimension ref="A1:AL6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/NewVIN_UT_SS.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/NewVIN_UT_SS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8328"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8325"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,42 +23,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Petrenko, Viktor (C)</author>
-  </authors>
-  <commentList>
-    <comment ref="AA6" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Petrenko, Viktor (C):</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-User for MSRP PAS-730</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="63">
   <si>
     <t>VIN</t>
   </si>
@@ -226,30 +192,6 @@
   </si>
   <si>
     <t>C</t>
-  </si>
-  <si>
-    <t>8L V12</t>
-  </si>
-  <si>
-    <t>4WD</t>
-  </si>
-  <si>
-    <t>VOLKSWAGEN</t>
-  </si>
-  <si>
-    <t>GOLF</t>
-  </si>
-  <si>
-    <t>HATCHBACK 4 DOOR</t>
-  </si>
-  <si>
-    <t>RT</t>
-  </si>
-  <si>
-    <t>7MSRP15H&amp;V</t>
-  </si>
-  <si>
-    <t>X</t>
   </si>
   <si>
     <t>M</t>
@@ -277,7 +219,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -298,19 +240,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -626,38 +555,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AL5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" customWidth="1"/>
-    <col min="2" max="2" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.5546875" customWidth="1"/>
-    <col min="15" max="15" width="18.6640625" customWidth="1"/>
-    <col min="21" max="21" width="22.88671875" customWidth="1"/>
-    <col min="23" max="23" width="22.33203125" customWidth="1"/>
-    <col min="24" max="24" width="20.88671875" customWidth="1"/>
-    <col min="25" max="25" width="34.6640625" customWidth="1"/>
-    <col min="26" max="26" width="5.88671875" customWidth="1"/>
-    <col min="27" max="27" width="16.33203125" customWidth="1"/>
-    <col min="28" max="29" width="13.6640625" customWidth="1"/>
-    <col min="35" max="35" width="19.88671875" customWidth="1"/>
-    <col min="36" max="36" width="21.88671875" customWidth="1"/>
-    <col min="38" max="38" width="20.88671875" customWidth="1"/>
+    <col min="12" max="12" width="24.5703125" customWidth="1"/>
+    <col min="15" max="15" width="18.7109375" customWidth="1"/>
+    <col min="21" max="21" width="22.85546875" customWidth="1"/>
+    <col min="23" max="23" width="22.28515625" customWidth="1"/>
+    <col min="24" max="24" width="20.85546875" customWidth="1"/>
+    <col min="25" max="25" width="34.7109375" customWidth="1"/>
+    <col min="26" max="26" width="5.85546875" customWidth="1"/>
+    <col min="27" max="27" width="16.28515625" customWidth="1"/>
+    <col min="28" max="29" width="13.7109375" customWidth="1"/>
+    <col min="35" max="35" width="19.85546875" customWidth="1"/>
+    <col min="36" max="36" width="21.85546875" customWidth="1"/>
+    <col min="38" max="38" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -773,21 +702,21 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C2" s="3">
         <v>2018</v>
       </c>
       <c r="D2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F2" t="s">
         <v>51</v>
@@ -889,12 +818,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C3" s="3">
         <v>2018</v>
@@ -906,7 +835,7 @@
         <v>50</v>
       </c>
       <c r="F3" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>28</v>
@@ -1005,12 +934,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C4" s="3">
         <v>2018</v>
@@ -1022,7 +951,7 @@
         <v>50</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>28</v>
@@ -1121,12 +1050,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C5" s="3">
         <v>2018</v>
@@ -1138,7 +1067,7 @@
         <v>50</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>28</v>
@@ -1198,7 +1127,7 @@
         <v>37</v>
       </c>
       <c r="Z5" s="3" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="AA5" s="3">
         <v>42</v>
@@ -1234,128 +1163,11 @@
         <v>39</v>
       </c>
       <c r="AL5" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="3">
-        <v>2018</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H6" s="3">
-        <v>88888</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="O6" s="3">
-        <v>12</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q6" s="3">
-        <v>214</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="S6" s="3">
-        <v>4</v>
-      </c>
-      <c r="T6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="U6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="V6" s="3">
-        <v>2</v>
-      </c>
-      <c r="W6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="X6" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z6" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA6" s="3">
-        <v>35</v>
-      </c>
-      <c r="AB6" s="3">
-        <v>44</v>
-      </c>
-      <c r="AC6" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE6" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF6" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AG6" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AH6" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AI6" s="3">
-        <v>20000101</v>
-      </c>
-      <c r="AJ6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AK6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL6" s="3" t="s">
         <v>49</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/NewVIN_UT_SS.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/NewVIN_UT_SS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gp8john\Documents\CSAA\pas-cvqaautomation\aaa-automation-tests\src\test\resources\uploadingfiles\vinUploadFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CSAA\CODE\pas-cvqaautomation\aaa-automation-tests\src\test\resources\uploadingfiles\vinUploadFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8325"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8328"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="59">
   <si>
     <t>VIN</t>
   </si>
@@ -182,19 +182,7 @@
     <t>Gt</t>
   </si>
   <si>
-    <t>STAT</t>
-  </si>
-  <si>
-    <t>CHOICE_TIER</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
     <t>C</t>
-  </si>
-  <si>
-    <t>M</t>
   </si>
   <si>
     <t>invalidVIN</t>
@@ -556,37 +544,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL5"/>
+  <dimension ref="A1:AJ5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AE17" sqref="AE17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" customWidth="1"/>
+    <col min="2" max="2" width="27.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.5703125" customWidth="1"/>
-    <col min="15" max="15" width="18.7109375" customWidth="1"/>
-    <col min="21" max="21" width="22.85546875" customWidth="1"/>
-    <col min="23" max="23" width="22.28515625" customWidth="1"/>
-    <col min="24" max="24" width="20.85546875" customWidth="1"/>
-    <col min="25" max="25" width="34.7109375" customWidth="1"/>
-    <col min="26" max="26" width="5.85546875" customWidth="1"/>
-    <col min="27" max="27" width="16.28515625" customWidth="1"/>
-    <col min="28" max="29" width="13.7109375" customWidth="1"/>
-    <col min="35" max="35" width="19.85546875" customWidth="1"/>
-    <col min="36" max="36" width="21.85546875" customWidth="1"/>
-    <col min="38" max="38" width="20.85546875" customWidth="1"/>
+    <col min="12" max="12" width="24.5546875" customWidth="1"/>
+    <col min="15" max="15" width="18.6640625" customWidth="1"/>
+    <col min="21" max="21" width="22.88671875" customWidth="1"/>
+    <col min="23" max="23" width="22.33203125" customWidth="1"/>
+    <col min="24" max="24" width="20.88671875" customWidth="1"/>
+    <col min="25" max="25" width="34.6640625" customWidth="1"/>
+    <col min="26" max="26" width="5.88671875" customWidth="1"/>
+    <col min="27" max="27" width="16.33203125" customWidth="1"/>
+    <col min="28" max="29" width="13.6640625" customWidth="1"/>
+    <col min="35" max="35" width="19.88671875" customWidth="1"/>
+    <col min="36" max="36" width="21.88671875" customWidth="1"/>
+    <col min="38" max="38" width="20.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -663,60 +651,54 @@
         <v>24</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AL1" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C2" s="3">
         <v>2018</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F2" t="s">
         <v>51</v>
@@ -778,52 +760,46 @@
       <c r="Y2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Z2" s="3" t="s">
-        <v>38</v>
+      <c r="Z2" s="3">
+        <v>42</v>
       </c>
       <c r="AA2" s="3">
         <v>42</v>
       </c>
-      <c r="AB2" s="3">
-        <v>42</v>
+      <c r="AB2" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AD2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG2" s="3">
+        <v>20010101</v>
+      </c>
+      <c r="AH2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AE2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AH2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI2" s="3">
-        <v>20010101</v>
+      <c r="AI2" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="AJ2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AK2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL2" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C3" s="3">
         <v>2018</v>
@@ -835,7 +811,7 @@
         <v>50</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>28</v>
@@ -894,52 +870,46 @@
       <c r="Y3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Z3" s="3" t="s">
-        <v>38</v>
+      <c r="Z3" s="3">
+        <v>42</v>
       </c>
       <c r="AA3" s="3">
         <v>42</v>
       </c>
-      <c r="AB3" s="3">
-        <v>42</v>
+      <c r="AB3" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="AC3" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="AD3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG3" s="3">
+        <v>20000101</v>
+      </c>
+      <c r="AH3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AE3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AG3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AH3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AI3" s="3">
-        <v>20000101</v>
-      </c>
       <c r="AJ3" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AK3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL3" s="3" t="s">
-        <v>49</v>
-      </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C4" s="3">
         <v>2018</v>
@@ -951,7 +921,7 @@
         <v>50</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>28</v>
@@ -1010,20 +980,20 @@
       <c r="Y4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Z4" s="3" t="s">
-        <v>38</v>
+      <c r="Z4" s="3">
+        <v>42</v>
       </c>
       <c r="AA4" s="3">
         <v>42</v>
       </c>
-      <c r="AB4" s="3">
-        <v>42</v>
+      <c r="AB4" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="AC4" s="3" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AD4" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AE4" s="3" t="s">
         <v>38</v>
@@ -1031,31 +1001,25 @@
       <c r="AF4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AG4" s="3" t="s">
-        <v>38</v>
+      <c r="AG4" s="3">
+        <v>20150101</v>
       </c>
       <c r="AH4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AI4" s="3">
-        <v>20150101</v>
+        <v>39</v>
+      </c>
+      <c r="AI4" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="AJ4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AK4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL4" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C5" s="3">
         <v>2018</v>
@@ -1067,7 +1031,7 @@
         <v>50</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>28</v>
@@ -1126,43 +1090,37 @@
       <c r="Y5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Z5" s="3" t="s">
-        <v>56</v>
+      <c r="Z5" s="3">
+        <v>42</v>
       </c>
       <c r="AA5" s="3">
         <v>42</v>
       </c>
-      <c r="AB5" s="3">
-        <v>42</v>
+      <c r="AB5" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="AC5" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="AD5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG5" s="3">
+        <v>20190101</v>
+      </c>
+      <c r="AH5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AE5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AG5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AH5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AI5" s="3">
-        <v>20190101</v>
+      <c r="AI5" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="AJ5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AK5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL5" s="3" t="s">
         <v>49</v>
       </c>
     </row>

--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/NewVIN_UT_SS.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/NewVIN_UT_SS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CSAA\CODE\pas-cvqaautomation\aaa-automation-tests\src\test\resources\uploadingfiles\vinUploadFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT-repo\pas-cvqaautomation\aaa-automation-tests\src\test\resources\uploadingfiles\vinUploadFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="73">
   <si>
     <t>VIN</t>
   </si>
@@ -140,9 +140,6 @@
     <t>B-IMMOBILIZER/KEYLSS ENTRY/ALARM</t>
   </si>
   <si>
-    <t>K</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
@@ -182,9 +179,6 @@
     <t>Gt</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>invalidVIN</t>
   </si>
   <si>
@@ -197,10 +191,58 @@
     <t>TOYOTA</t>
   </si>
   <si>
-    <t>SYMBOL_2000</t>
-  </si>
-  <si>
     <t>AAAKN3DD&amp;E</t>
+  </si>
+  <si>
+    <t>BI001</t>
+  </si>
+  <si>
+    <t>PD001</t>
+  </si>
+  <si>
+    <t>UM001</t>
+  </si>
+  <si>
+    <t>MP001</t>
+  </si>
+  <si>
+    <t>BI002</t>
+  </si>
+  <si>
+    <t>PD002</t>
+  </si>
+  <si>
+    <t>UM002</t>
+  </si>
+  <si>
+    <t>MP002</t>
+  </si>
+  <si>
+    <t>BI003</t>
+  </si>
+  <si>
+    <t>BI004</t>
+  </si>
+  <si>
+    <t>PD003</t>
+  </si>
+  <si>
+    <t>PD004</t>
+  </si>
+  <si>
+    <t>UM003</t>
+  </si>
+  <si>
+    <t>UM004</t>
+  </si>
+  <si>
+    <t>MP003</t>
+  </si>
+  <si>
+    <t>MP004</t>
+  </si>
+  <si>
+    <t>SYMBOL_2017</t>
   </si>
 </sst>
 </file>
@@ -546,8 +588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AE17" sqref="AE17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -660,48 +702,48 @@
         <v>27</v>
       </c>
       <c r="AC1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="C2" s="3">
         <v>2018</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>28</v>
@@ -713,19 +755,19 @@
         <v>29</v>
       </c>
       <c r="J2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O2" s="3">
         <v>8</v>
@@ -767,51 +809,51 @@
         <v>42</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="AG2" s="3">
         <v>20010101</v>
       </c>
       <c r="AH2" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AI2" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AJ2" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="C3" s="3">
         <v>2018</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>28</v>
@@ -823,19 +865,19 @@
         <v>29</v>
       </c>
       <c r="J3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>30</v>
       </c>
       <c r="L3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O3" s="3">
         <v>8</v>
@@ -877,51 +919,51 @@
         <v>42</v>
       </c>
       <c r="AB3" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC3" s="3" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="AD3" s="3" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="AE3" s="3" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="AF3" s="3" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="AG3" s="3">
         <v>20000101</v>
       </c>
       <c r="AH3" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI3" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AJ3" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="C4" s="3">
         <v>2018</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>28</v>
@@ -933,19 +975,19 @@
         <v>29</v>
       </c>
       <c r="J4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>30</v>
       </c>
       <c r="L4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O4" s="3">
         <v>8</v>
@@ -987,51 +1029,51 @@
         <v>42</v>
       </c>
       <c r="AB4" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC4" s="3" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="AD4" s="3" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="AE4" s="3" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="AF4" s="3" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="AG4" s="3">
         <v>20150101</v>
       </c>
       <c r="AH4" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AI4" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AJ4" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="C5" s="3">
         <v>2018</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>28</v>
@@ -1043,19 +1085,19 @@
         <v>29</v>
       </c>
       <c r="J5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>30</v>
       </c>
       <c r="L5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O5" s="3">
         <v>8</v>
@@ -1097,31 +1139,31 @@
         <v>42</v>
       </c>
       <c r="AB5" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC5" s="3" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="AD5" s="3" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="AE5" s="3" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="AF5" s="3" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="AG5" s="3">
         <v>20190101</v>
       </c>
       <c r="AH5" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AI5" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AJ5" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
